--- a/db/input_WR34 - copy.xlsx
+++ b/db/input_WR34 - copy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Ch.Index</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>J2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230 MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>216 MHz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -515,7 +527,7 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +540,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -542,8 +560,14 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -556,8 +580,14 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -570,8 +600,14 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -584,8 +620,14 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -598,8 +640,14 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -612,8 +660,14 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -626,8 +680,14 @@
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -639,6 +699,12 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
